--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18A827C-D7AE-4586-97E9-12EDCEA96C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC259D51-036F-49E9-8416-7C71E245BC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC259D51-036F-49E9-8416-7C71E245BC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424D37F-D7D6-4AD5-A8B6-C92BB2D240A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424D37F-D7D6-4AD5-A8B6-C92BB2D240A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EA406-6DFC-4304-8EEA-B8FA4EB5F562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EA406-6DFC-4304-8EEA-B8FA4EB5F562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FAAEF-1773-4FB1-85CA-D83EF9DBFFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FAAEF-1773-4FB1-85CA-D83EF9DBFFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095C1BE-9673-4F8F-90EC-119475590949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095C1BE-9673-4F8F-90EC-119475590949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F3C42F-ADE5-4EE1-AFB3-B79BE4797C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F3C42F-ADE5-4EE1-AFB3-B79BE4797C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FE732B-FBCE-444E-8BEE-B70ADA75FDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FE732B-FBCE-444E-8BEE-B70ADA75FDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C0A2DD-A8C8-45D7-BA42-A6792146E8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C0A2DD-A8C8-45D7-BA42-A6792146E8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08524B81-DEE2-4193-9AA3-0B0575D38789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
